--- a/attendance-files/B2B/B2B Attendance - A.xlsx
+++ b/attendance-files/B2B/B2B Attendance - A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="200">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="F7" s="36">
         <f t="shared" ref="F7:F92" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>40</v>
@@ -1710,8 +1710,12 @@
       <c r="U7" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
+      <c r="V7" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X7" s="40"/>
       <c r="Y7" s="40"/>
       <c r="Z7" s="40"/>
@@ -1732,11 +1736,11 @@
       </c>
       <c r="E8" s="36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>40</v>
@@ -1783,8 +1787,12 @@
       <c r="U8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
+      <c r="V8" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X8" s="40"/>
       <c r="Y8" s="40"/>
       <c r="Z8" s="40"/>
@@ -1809,7 +1817,7 @@
       </c>
       <c r="F9" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>10</v>
@@ -1856,8 +1864,12 @@
       <c r="U9" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
+      <c r="V9" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X9" s="40"/>
       <c r="Y9" s="40"/>
       <c r="Z9" s="40"/>
@@ -1882,7 +1894,7 @@
       </c>
       <c r="F10" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>40</v>
@@ -1929,8 +1941,12 @@
       <c r="U10" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
+      <c r="V10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X10" s="40"/>
       <c r="Y10" s="40"/>
       <c r="Z10" s="40"/>
@@ -1955,7 +1971,7 @@
       </c>
       <c r="F11" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>40</v>
@@ -2002,8 +2018,12 @@
       <c r="U11" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
+      <c r="V11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
       <c r="Z11" s="40"/>
@@ -2024,7 +2044,7 @@
       </c>
       <c r="E12" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="36">
         <f t="shared" si="2"/>
@@ -2075,8 +2095,12 @@
       <c r="U12" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
+      <c r="V12" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X12" s="40"/>
       <c r="Y12" s="40"/>
       <c r="Z12" s="40"/>
@@ -2101,7 +2125,7 @@
       </c>
       <c r="F13" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>40</v>
@@ -2148,8 +2172,12 @@
       <c r="U13" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
+      <c r="V13" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
@@ -2174,7 +2202,7 @@
       </c>
       <c r="F14" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>40</v>
@@ -2221,8 +2249,12 @@
       <c r="U14" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
+      <c r="V14" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X14" s="40"/>
       <c r="Y14" s="40"/>
       <c r="Z14" s="40"/>
@@ -2247,7 +2279,7 @@
       </c>
       <c r="F15" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>40</v>
@@ -2294,8 +2326,12 @@
       <c r="U15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
+      <c r="V15" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X15" s="40"/>
       <c r="Y15" s="40"/>
       <c r="Z15" s="40"/>
@@ -2316,11 +2352,11 @@
       </c>
       <c r="E16" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>40</v>
@@ -2367,8 +2403,12 @@
       <c r="U16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
+      <c r="V16" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
       <c r="Z16" s="40"/>
@@ -2389,7 +2429,7 @@
       </c>
       <c r="E17" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="36">
         <f t="shared" si="2"/>
@@ -2440,8 +2480,12 @@
       <c r="U17" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
+      <c r="V17" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="W17" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X17" s="40"/>
       <c r="Y17" s="40"/>
       <c r="Z17" s="40"/>
@@ -2462,11 +2506,11 @@
       </c>
       <c r="E18" s="36">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>10</v>
@@ -2513,8 +2557,12 @@
       <c r="U18" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
+      <c r="V18" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X18" s="40"/>
       <c r="Y18" s="40"/>
       <c r="Z18" s="40"/>
@@ -2535,11 +2583,11 @@
       </c>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>10</v>
@@ -2586,8 +2634,12 @@
       <c r="U19" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
+      <c r="V19" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W19" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X19" s="40"/>
       <c r="Y19" s="40"/>
       <c r="Z19" s="40"/>
@@ -2608,11 +2660,11 @@
       </c>
       <c r="E20" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>40</v>
@@ -2659,8 +2711,12 @@
       <c r="U20" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
+      <c r="V20" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W20" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X20" s="40"/>
       <c r="Y20" s="40"/>
       <c r="Z20" s="40"/>
@@ -2685,7 +2741,7 @@
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>10</v>
@@ -2732,8 +2788,12 @@
       <c r="U21" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
+      <c r="V21" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W21" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X21" s="40"/>
       <c r="Y21" s="40"/>
       <c r="Z21" s="40"/>
@@ -2758,7 +2818,7 @@
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
@@ -2805,8 +2865,12 @@
       <c r="U22" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
+      <c r="V22" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W22" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X22" s="40"/>
       <c r="Y22" s="40"/>
       <c r="Z22" s="40"/>
@@ -2827,11 +2891,11 @@
       </c>
       <c r="E23" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>40</v>
@@ -2878,8 +2942,12 @@
       <c r="U23" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
+      <c r="V23" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W23" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X23" s="40"/>
       <c r="Y23" s="40"/>
       <c r="Z23" s="40"/>
@@ -2900,11 +2968,11 @@
       </c>
       <c r="E24" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>40</v>
@@ -2951,8 +3019,12 @@
       <c r="U24" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
+      <c r="V24" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W24" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X24" s="40"/>
       <c r="Y24" s="40"/>
       <c r="Z24" s="40"/>
@@ -2977,7 +3049,7 @@
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>10</v>
@@ -3024,8 +3096,12 @@
       <c r="U25" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
+      <c r="V25" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W25" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X25" s="40"/>
       <c r="Y25" s="40"/>
       <c r="Z25" s="40"/>
@@ -3046,11 +3122,11 @@
       </c>
       <c r="E26" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>40</v>
@@ -3097,8 +3173,12 @@
       <c r="U26" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
+      <c r="V26" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X26" s="40"/>
       <c r="Y26" s="40"/>
       <c r="Z26" s="40"/>
@@ -3119,11 +3199,11 @@
       </c>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>10</v>
@@ -3170,8 +3250,12 @@
       <c r="U27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
+      <c r="V27" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W27" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X27" s="40"/>
       <c r="Y27" s="40"/>
       <c r="Z27" s="40"/>
@@ -3196,7 +3280,7 @@
       </c>
       <c r="F28" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>40</v>
@@ -3243,8 +3327,12 @@
       <c r="U28" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
+      <c r="V28" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W28" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X28" s="40"/>
       <c r="Y28" s="40"/>
       <c r="Z28" s="40"/>
@@ -3269,7 +3357,7 @@
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>40</v>
@@ -3316,8 +3404,12 @@
       <c r="U29" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
+      <c r="V29" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W29" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X29" s="40"/>
       <c r="Y29" s="40"/>
       <c r="Z29" s="40"/>
@@ -3338,11 +3430,11 @@
       </c>
       <c r="E30" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>40</v>
@@ -3389,8 +3481,12 @@
       <c r="U30" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
+      <c r="V30" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X30" s="40"/>
       <c r="Y30" s="40"/>
       <c r="Z30" s="40"/>
@@ -3415,7 +3511,7 @@
       </c>
       <c r="F31" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>40</v>
@@ -3462,8 +3558,12 @@
       <c r="U31" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
+      <c r="V31" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X31" s="40"/>
       <c r="Y31" s="40"/>
       <c r="Z31" s="40"/>
@@ -3484,11 +3584,11 @@
       </c>
       <c r="E32" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>40</v>
@@ -3535,8 +3635,12 @@
       <c r="U32" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
+      <c r="V32" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W32" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X32" s="40"/>
       <c r="Y32" s="40"/>
       <c r="Z32" s="40"/>
@@ -3557,11 +3661,11 @@
       </c>
       <c r="E33" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>40</v>
@@ -3608,8 +3712,12 @@
       <c r="U33" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
+      <c r="V33" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X33" s="40"/>
       <c r="Y33" s="40"/>
       <c r="Z33" s="40"/>
@@ -3630,7 +3738,7 @@
       </c>
       <c r="E34" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="36">
         <f t="shared" si="2"/>
@@ -3681,8 +3789,12 @@
       <c r="U34" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
+      <c r="V34" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="W34" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X34" s="40"/>
       <c r="Y34" s="40"/>
       <c r="Z34" s="40"/>
@@ -3703,11 +3815,11 @@
       </c>
       <c r="E35" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>40</v>
@@ -3754,8 +3866,12 @@
       <c r="U35" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
+      <c r="V35" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W35" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X35" s="40"/>
       <c r="Y35" s="40"/>
       <c r="Z35" s="40"/>
@@ -3780,7 +3896,7 @@
       </c>
       <c r="F36" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>40</v>
@@ -3827,8 +3943,12 @@
       <c r="U36" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
+      <c r="V36" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W36" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X36" s="40"/>
       <c r="Y36" s="40"/>
       <c r="Z36" s="40"/>
@@ -3853,7 +3973,7 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>40</v>
@@ -3900,8 +4020,12 @@
       <c r="U37" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
+      <c r="V37" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W37" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X37" s="40"/>
       <c r="Y37" s="40"/>
       <c r="Z37" s="40"/>
@@ -3926,7 +4050,7 @@
       </c>
       <c r="F38" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>40</v>
@@ -3973,8 +4097,12 @@
       <c r="U38" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
+      <c r="V38" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W38" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X38" s="40"/>
       <c r="Y38" s="40"/>
       <c r="Z38" s="40"/>
@@ -3999,7 +4127,7 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>40</v>
@@ -4046,8 +4174,12 @@
       <c r="U39" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
+      <c r="V39" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W39" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X39" s="40"/>
       <c r="Y39" s="40"/>
       <c r="Z39" s="40"/>
@@ -4072,7 +4204,7 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>40</v>
@@ -4119,8 +4251,12 @@
       <c r="U40" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
+      <c r="V40" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X40" s="40"/>
       <c r="Y40" s="40"/>
       <c r="Z40" s="40"/>
@@ -4145,7 +4281,7 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>40</v>
@@ -4192,8 +4328,12 @@
       <c r="U41" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
+      <c r="V41" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W41" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X41" s="40"/>
       <c r="Y41" s="40"/>
       <c r="Z41" s="40"/>
@@ -4214,11 +4354,11 @@
       </c>
       <c r="E42" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>40</v>
@@ -4265,8 +4405,12 @@
       <c r="U42" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
+      <c r="V42" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="W42" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X42" s="40"/>
       <c r="Y42" s="40"/>
       <c r="Z42" s="40"/>
@@ -4291,7 +4435,7 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>40</v>
@@ -4306,7 +4450,7 @@
         <v>40</v>
       </c>
       <c r="K43" s="37" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L43" s="38" t="s">
         <v>41</v>
@@ -4338,8 +4482,12 @@
       <c r="U43" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
+      <c r="V43" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W43" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X43" s="40"/>
       <c r="Y43" s="40"/>
       <c r="Z43" s="40"/>
@@ -4364,7 +4512,7 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>10</v>
@@ -4411,8 +4559,12 @@
       <c r="U44" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
+      <c r="V44" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W44" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X44" s="40"/>
       <c r="Y44" s="40"/>
       <c r="Z44" s="40"/>
@@ -4433,11 +4585,11 @@
       </c>
       <c r="E45" s="36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>40</v>
@@ -4479,13 +4631,17 @@
         <v>10</v>
       </c>
       <c r="T45" s="39" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="U45" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
+      <c r="V45" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W45" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X45" s="40"/>
       <c r="Y45" s="40"/>
       <c r="Z45" s="40"/>
@@ -4506,11 +4662,11 @@
       </c>
       <c r="E46" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>40</v>
@@ -4557,8 +4713,12 @@
       <c r="U46" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V46" s="40"/>
-      <c r="W46" s="40"/>
+      <c r="V46" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W46" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X46" s="40"/>
       <c r="Y46" s="40"/>
       <c r="Z46" s="40"/>
@@ -4579,11 +4739,11 @@
       </c>
       <c r="E47" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>40</v>
@@ -4630,8 +4790,12 @@
       <c r="U47" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
+      <c r="V47" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W47" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X47" s="40"/>
       <c r="Y47" s="40"/>
       <c r="Z47" s="40"/>
@@ -4652,11 +4816,11 @@
       </c>
       <c r="E48" s="36">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>10</v>
@@ -4695,7 +4859,7 @@
         <v>40</v>
       </c>
       <c r="S48" s="39" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="T48" s="39" t="s">
         <v>10</v>
@@ -4703,8 +4867,12 @@
       <c r="U48" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
+      <c r="V48" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W48" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X48" s="40"/>
       <c r="Y48" s="40"/>
       <c r="Z48" s="40"/>
@@ -4729,7 +4897,7 @@
       </c>
       <c r="F49" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>40</v>
@@ -4776,8 +4944,12 @@
       <c r="U49" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
+      <c r="V49" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W49" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X49" s="40"/>
       <c r="Y49" s="40"/>
       <c r="Z49" s="40"/>
@@ -4798,11 +4970,11 @@
       </c>
       <c r="E50" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>40</v>
@@ -4849,8 +5021,12 @@
       <c r="U50" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
+      <c r="V50" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W50" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X50" s="40"/>
       <c r="Y50" s="40"/>
       <c r="Z50" s="40"/>
@@ -4871,11 +5047,11 @@
       </c>
       <c r="E51" s="36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>40</v>
@@ -4922,8 +5098,12 @@
       <c r="U51" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
+      <c r="V51" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W51" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X51" s="40"/>
       <c r="Y51" s="40"/>
       <c r="Z51" s="40"/>
@@ -4948,7 +5128,7 @@
       </c>
       <c r="F52" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>40</v>
@@ -4995,8 +5175,12 @@
       <c r="U52" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
+      <c r="V52" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W52" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X52" s="40"/>
       <c r="Y52" s="40"/>
       <c r="Z52" s="40"/>
@@ -5021,7 +5205,7 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>40</v>
@@ -5068,8 +5252,12 @@
       <c r="U53" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
+      <c r="V53" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W53" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X53" s="40"/>
       <c r="Y53" s="40"/>
       <c r="Z53" s="40"/>
@@ -5094,7 +5282,7 @@
       </c>
       <c r="F54" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>40</v>
@@ -5141,8 +5329,12 @@
       <c r="U54" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
+      <c r="V54" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W54" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X54" s="40"/>
       <c r="Y54" s="40"/>
       <c r="Z54" s="40"/>
@@ -5167,7 +5359,7 @@
       </c>
       <c r="F55" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>40</v>
@@ -5214,8 +5406,12 @@
       <c r="U55" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
+      <c r="V55" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W55" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X55" s="40"/>
       <c r="Y55" s="40"/>
       <c r="Z55" s="40"/>
@@ -5236,11 +5432,11 @@
       </c>
       <c r="E56" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>40</v>
@@ -5287,8 +5483,12 @@
       <c r="U56" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
+      <c r="V56" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W56" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X56" s="40"/>
       <c r="Y56" s="40"/>
       <c r="Z56" s="40"/>
@@ -5313,7 +5513,7 @@
       </c>
       <c r="F57" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>40</v>
@@ -5360,8 +5560,12 @@
       <c r="U57" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
+      <c r="V57" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W57" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X57" s="40"/>
       <c r="Y57" s="40"/>
       <c r="Z57" s="40"/>
@@ -5382,11 +5586,11 @@
       </c>
       <c r="E58" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>40</v>
@@ -5433,8 +5637,12 @@
       <c r="U58" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
+      <c r="V58" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="W58" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X58" s="40"/>
       <c r="Y58" s="40"/>
       <c r="Z58" s="40"/>
@@ -5455,11 +5663,11 @@
       </c>
       <c r="E59" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>40</v>
@@ -5506,8 +5714,12 @@
       <c r="U59" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V59" s="40"/>
-      <c r="W59" s="40"/>
+      <c r="V59" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="W59" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X59" s="40"/>
       <c r="Y59" s="40"/>
       <c r="Z59" s="40"/>
@@ -5532,7 +5744,7 @@
       </c>
       <c r="F60" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>40</v>
@@ -5579,8 +5791,12 @@
       <c r="U60" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
+      <c r="V60" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W60" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X60" s="40"/>
       <c r="Y60" s="40"/>
       <c r="Z60" s="40"/>
@@ -5601,11 +5817,11 @@
       </c>
       <c r="E61" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>40</v>
@@ -5652,8 +5868,12 @@
       <c r="U61" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
+      <c r="V61" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="W61" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X61" s="40"/>
       <c r="Y61" s="40"/>
       <c r="Z61" s="40"/>
@@ -5678,7 +5898,7 @@
       </c>
       <c r="F62" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>40</v>
@@ -5725,8 +5945,12 @@
       <c r="U62" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
+      <c r="V62" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W62" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X62" s="40"/>
       <c r="Y62" s="40"/>
       <c r="Z62" s="40"/>
@@ -5747,11 +5971,11 @@
       </c>
       <c r="E63" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>40</v>
@@ -5798,8 +6022,12 @@
       <c r="U63" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
+      <c r="V63" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W63" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X63" s="40"/>
       <c r="Y63" s="40"/>
       <c r="Z63" s="40"/>
@@ -5820,11 +6048,11 @@
       </c>
       <c r="E64" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>40</v>
@@ -5871,8 +6099,12 @@
       <c r="U64" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V64" s="40"/>
-      <c r="W64" s="40"/>
+      <c r="V64" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W64" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X64" s="40"/>
       <c r="Y64" s="40"/>
       <c r="Z64" s="40"/>
@@ -5897,7 +6129,7 @@
       </c>
       <c r="F65" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>40</v>
@@ -5944,8 +6176,12 @@
       <c r="U65" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
+      <c r="V65" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W65" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X65" s="40"/>
       <c r="Y65" s="40"/>
       <c r="Z65" s="40"/>
@@ -5970,7 +6206,7 @@
       </c>
       <c r="F66" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>10</v>
@@ -6017,8 +6253,12 @@
       <c r="U66" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
+      <c r="V66" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W66" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X66" s="40"/>
       <c r="Y66" s="40"/>
       <c r="Z66" s="40"/>
@@ -6039,11 +6279,11 @@
       </c>
       <c r="E67" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>40</v>
@@ -6090,8 +6330,12 @@
       <c r="U67" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
+      <c r="V67" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W67" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X67" s="40"/>
       <c r="Y67" s="40"/>
       <c r="Z67" s="40"/>
@@ -6116,7 +6360,7 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>40</v>
@@ -6163,8 +6407,12 @@
       <c r="U68" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V68" s="40"/>
-      <c r="W68" s="40"/>
+      <c r="V68" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W68" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X68" s="40"/>
       <c r="Y68" s="40"/>
       <c r="Z68" s="40"/>
@@ -6185,11 +6433,11 @@
       </c>
       <c r="E69" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" s="37" t="s">
         <v>40</v>
@@ -6236,8 +6484,12 @@
       <c r="U69" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V69" s="40"/>
-      <c r="W69" s="40"/>
+      <c r="V69" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W69" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X69" s="40"/>
       <c r="Y69" s="40"/>
       <c r="Z69" s="40"/>
@@ -6262,7 +6514,7 @@
       </c>
       <c r="F70" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>40</v>
@@ -6309,8 +6561,12 @@
       <c r="U70" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V70" s="40"/>
-      <c r="W70" s="40"/>
+      <c r="V70" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W70" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X70" s="40"/>
       <c r="Y70" s="40"/>
       <c r="Z70" s="40"/>
@@ -6331,11 +6587,11 @@
       </c>
       <c r="E71" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>40</v>
@@ -6382,8 +6638,12 @@
       <c r="U71" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V71" s="40"/>
-      <c r="W71" s="40"/>
+      <c r="V71" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W71" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X71" s="40"/>
       <c r="Y71" s="40"/>
       <c r="Z71" s="40"/>
@@ -6408,7 +6668,7 @@
       </c>
       <c r="F72" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>40</v>
@@ -6455,8 +6715,12 @@
       <c r="U72" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V72" s="40"/>
-      <c r="W72" s="40"/>
+      <c r="V72" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W72" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X72" s="40"/>
       <c r="Y72" s="40"/>
       <c r="Z72" s="40"/>
@@ -6477,11 +6741,11 @@
       </c>
       <c r="E73" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>40</v>
@@ -6528,8 +6792,12 @@
       <c r="U73" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V73" s="40"/>
-      <c r="W73" s="40"/>
+      <c r="V73" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W73" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X73" s="40"/>
       <c r="Y73" s="40"/>
       <c r="Z73" s="40"/>
@@ -6554,7 +6822,7 @@
       </c>
       <c r="F74" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>40</v>
@@ -6601,8 +6869,12 @@
       <c r="U74" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V74" s="40"/>
-      <c r="W74" s="40"/>
+      <c r="V74" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W74" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X74" s="40"/>
       <c r="Y74" s="40"/>
       <c r="Z74" s="40"/>
@@ -6623,11 +6895,11 @@
       </c>
       <c r="E75" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>40</v>
@@ -6674,8 +6946,12 @@
       <c r="U75" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V75" s="40"/>
-      <c r="W75" s="40"/>
+      <c r="V75" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W75" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X75" s="40"/>
       <c r="Y75" s="40"/>
       <c r="Z75" s="40"/>
@@ -6700,7 +6976,7 @@
       </c>
       <c r="F76" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>40</v>
@@ -6747,8 +7023,12 @@
       <c r="U76" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V76" s="40"/>
-      <c r="W76" s="40"/>
+      <c r="V76" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W76" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X76" s="40"/>
       <c r="Y76" s="40"/>
       <c r="Z76" s="40"/>
@@ -6769,11 +7049,11 @@
       </c>
       <c r="E77" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>40</v>
@@ -6820,8 +7100,12 @@
       <c r="U77" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V77" s="40"/>
-      <c r="W77" s="40"/>
+      <c r="V77" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W77" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X77" s="40"/>
       <c r="Y77" s="40"/>
       <c r="Z77" s="40"/>
@@ -6842,7 +7126,7 @@
       </c>
       <c r="E78" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" s="36">
         <f t="shared" si="2"/>
@@ -6893,8 +7177,12 @@
       <c r="U78" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V78" s="40"/>
-      <c r="W78" s="40"/>
+      <c r="V78" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="W78" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X78" s="40"/>
       <c r="Y78" s="40"/>
       <c r="Z78" s="40"/>
@@ -6915,11 +7203,11 @@
       </c>
       <c r="E79" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>40</v>
@@ -6966,8 +7254,12 @@
       <c r="U79" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V79" s="40"/>
-      <c r="W79" s="40"/>
+      <c r="V79" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W79" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X79" s="40"/>
       <c r="Y79" s="40"/>
       <c r="Z79" s="40"/>
@@ -6988,11 +7280,11 @@
       </c>
       <c r="E80" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>10</v>
@@ -7039,8 +7331,12 @@
       <c r="U80" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V80" s="40"/>
-      <c r="W80" s="40"/>
+      <c r="V80" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W80" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X80" s="40"/>
       <c r="Y80" s="40"/>
       <c r="Z80" s="40"/>
@@ -7065,7 +7361,7 @@
       </c>
       <c r="F81" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G81" s="37" t="s">
         <v>40</v>
@@ -7112,8 +7408,12 @@
       <c r="U81" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V81" s="40"/>
-      <c r="W81" s="40"/>
+      <c r="V81" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W81" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X81" s="40"/>
       <c r="Y81" s="40"/>
       <c r="Z81" s="40"/>
@@ -7138,7 +7438,7 @@
       </c>
       <c r="F82" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G82" s="37" t="s">
         <v>40</v>
@@ -7185,8 +7485,12 @@
       <c r="U82" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="V82" s="40"/>
-      <c r="W82" s="40"/>
+      <c r="V82" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W82" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X82" s="40"/>
       <c r="Y82" s="40"/>
       <c r="Z82" s="40"/>
@@ -7211,7 +7515,7 @@
       </c>
       <c r="F83" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G83" s="37" t="s">
         <v>40</v>
@@ -7258,8 +7562,12 @@
       <c r="U83" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V83" s="40"/>
-      <c r="W83" s="40"/>
+      <c r="V83" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W83" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X83" s="40"/>
       <c r="Y83" s="40"/>
       <c r="Z83" s="40"/>
@@ -7284,7 +7592,7 @@
       </c>
       <c r="F84" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G84" s="37" t="s">
         <v>40</v>
@@ -7331,8 +7639,12 @@
       <c r="U84" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V84" s="40"/>
-      <c r="W84" s="40"/>
+      <c r="V84" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W84" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X84" s="40"/>
       <c r="Y84" s="40"/>
       <c r="Z84" s="40"/>
@@ -7353,11 +7665,11 @@
       </c>
       <c r="E85" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G85" s="37" t="s">
         <v>40</v>
@@ -7404,8 +7716,12 @@
       <c r="U85" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V85" s="40"/>
-      <c r="W85" s="40"/>
+      <c r="V85" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="W85" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="X85" s="40"/>
       <c r="Y85" s="40"/>
       <c r="Z85" s="40"/>
@@ -7426,11 +7742,11 @@
       </c>
       <c r="E86" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G86" s="37" t="s">
         <v>40</v>
@@ -7477,8 +7793,12 @@
       <c r="U86" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="V86" s="40"/>
-      <c r="W86" s="40"/>
+      <c r="V86" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W86" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="X86" s="40"/>
       <c r="Y86" s="40"/>
       <c r="Z86" s="40"/>
@@ -7517,7 +7837,7 @@
       <c r="T87" s="40"/>
       <c r="U87" s="40"/>
       <c r="V87" s="40"/>
-      <c r="W87" s="40"/>
+      <c r="W87" s="39"/>
       <c r="X87" s="40"/>
       <c r="Y87" s="40"/>
       <c r="Z87" s="40"/>
